--- a/TP7/labo13dejunio.xlsx
+++ b/TP7/labo13dejunio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa-m\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\InformesElectro\TP7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6BE4C7-7149-42E9-9426-ACAB3F5F1A3C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7636C7-C8DD-4489-B684-5DABDDE90416}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{8D1190CA-25AB-4E69-A58D-3C4888E3BE3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4104" xr2:uid="{8D1190CA-25AB-4E69-A58D-3C4888E3BE3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,7 +75,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,17 +373,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA565196-7991-4512-97CB-210D09F04539}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>300</v>
       </c>
@@ -395,7 +391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>310</v>
       </c>
@@ -403,7 +399,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>800</v>
       </c>
@@ -411,7 +407,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1100</v>
       </c>
@@ -419,7 +415,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1340</v>
       </c>
@@ -427,7 +423,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1530</v>
       </c>
@@ -435,7 +431,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1710</v>
       </c>
@@ -443,7 +439,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1900</v>
       </c>
@@ -451,7 +447,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -459,7 +455,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2170</v>
       </c>
@@ -467,7 +463,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2300</v>
       </c>
@@ -475,7 +471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2580</v>
       </c>
@@ -483,7 +479,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2860</v>
       </c>
@@ -491,7 +487,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3130</v>
       </c>
@@ -499,7 +495,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3350</v>
       </c>
@@ -507,7 +503,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3580</v>
       </c>
@@ -515,7 +511,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3850</v>
       </c>
@@ -523,7 +519,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4020</v>
       </c>
@@ -531,7 +527,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4260</v>
       </c>
@@ -539,7 +535,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4390</v>
       </c>
@@ -547,7 +543,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4500</v>
       </c>
@@ -555,7 +551,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4610</v>
       </c>
@@ -563,7 +559,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4670</v>
       </c>
@@ -571,7 +567,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4800</v>
       </c>
@@ -579,7 +575,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4900</v>
       </c>
@@ -587,7 +583,7 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5000</v>
       </c>
@@ -595,7 +591,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5200</v>
       </c>
@@ -603,7 +599,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5250</v>
       </c>
@@ -611,7 +607,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5350</v>
       </c>
@@ -619,7 +615,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5450</v>
       </c>
@@ -627,7 +623,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5550</v>
       </c>
@@ -635,7 +631,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5650</v>
       </c>
@@ -643,7 +639,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5800</v>
       </c>
@@ -651,7 +647,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7000</v>
       </c>
@@ -659,7 +655,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8200</v>
       </c>
@@ -667,7 +663,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9500</v>
       </c>
@@ -675,7 +671,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10900</v>
       </c>
@@ -683,7 +679,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12500</v>
       </c>
@@ -691,7 +687,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14300</v>
       </c>
@@ -699,7 +695,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>16200</v>
       </c>
@@ -707,7 +703,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>18400</v>
       </c>
@@ -715,7 +711,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20800</v>
       </c>
@@ -723,7 +719,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>23400</v>
       </c>
@@ -731,7 +727,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>26300</v>
       </c>
@@ -739,7 +735,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>29800</v>
       </c>
@@ -747,7 +743,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>33600</v>
       </c>
@@ -755,7 +751,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>37700</v>
       </c>
@@ -763,7 +759,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>42600</v>
       </c>
@@ -771,7 +767,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47500</v>
       </c>
@@ -779,7 +775,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>53500</v>
       </c>
@@ -787,7 +783,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>59700</v>
       </c>
@@ -795,7 +791,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>67100</v>
       </c>
@@ -803,7 +799,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>75400</v>
       </c>
@@ -811,7 +807,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>84800</v>
       </c>
@@ -819,7 +815,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>94600</v>
       </c>
@@ -827,7 +823,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>107900</v>
       </c>
@@ -835,7 +831,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>120900</v>
       </c>
@@ -843,7 +839,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>135900</v>
       </c>
@@ -851,7 +847,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>151900</v>
       </c>
